--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="March" sheetId="31" r:id="rId1"/>
+    <sheet name="April 2021" sheetId="31" r:id="rId1"/>
+    <sheet name="May 2021" sheetId="32" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">March!$A$2:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$10</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -50,6 +52,87 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL FOR THE MONTH OFAPRIL 2021-22 </t>
+  </si>
+  <si>
+    <t>21.04.2021</t>
+  </si>
+  <si>
+    <t>Vidhya Bag house</t>
+  </si>
+  <si>
+    <t>5 Kg Non woven Bags</t>
+  </si>
+  <si>
+    <t>DL-01-LAD-6945</t>
+  </si>
+  <si>
+    <t>Canvas bag Special 250g</t>
+  </si>
+  <si>
+    <t>26.04.2021</t>
+  </si>
+  <si>
+    <t>24.04.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/127</t>
+  </si>
+  <si>
+    <t>UMA Polymers Limited</t>
+  </si>
+  <si>
+    <t>Rs. 5 premiun laminate</t>
+  </si>
+  <si>
+    <t>HR-56-A-8317</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/123</t>
+  </si>
+  <si>
+    <t>500g Special Laminated Pouch</t>
+  </si>
+  <si>
+    <t>16.04.2021</t>
+  </si>
+  <si>
+    <t>15.04.2021</t>
+  </si>
+  <si>
+    <t>Polycon International LTD.</t>
+  </si>
+  <si>
+    <t>Pet jar</t>
+  </si>
+  <si>
+    <t>HR-38-Z-6429</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>06.05.2021</t>
+  </si>
+  <si>
+    <t>04.05.2021</t>
+  </si>
+  <si>
+    <t>RJ-02-GB-3687</t>
+  </si>
+  <si>
+    <t>Special 250g laminate</t>
+  </si>
+  <si>
+    <t>Non Woven Bags</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/195</t>
   </si>
 </sst>
 </file>
@@ -119,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -143,7 +226,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -164,55 +247,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -279,13 +319,76 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -298,35 +401,66 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -335,8 +469,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -351,47 +487,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -401,44 +502,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,15 +528,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,44 +543,101 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,331 +933,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="23">
+        <v>13</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="24">
+        <v>2700</v>
+      </c>
+      <c r="G3" s="24">
+        <v>60534</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="26">
+        <v>741189998356</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2036</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24">
+        <v>32400</v>
+      </c>
+      <c r="G4" s="24">
+        <v>389966.4</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="26">
+        <v>701186878145</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="31">
+        <v>7</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1800</v>
+      </c>
+      <c r="G5" s="24">
+        <v>40356</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="34">
+        <v>741187707460</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="21">
+        <v>6</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G6" s="1">
+        <v>184275</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="33">
+        <v>731187707298</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1086.95</v>
+      </c>
+      <c r="G8" s="1">
+        <v>322255</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="33">
+        <v>741188142321</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>65700</v>
+      </c>
+      <c r="G9" s="1">
+        <v>267732</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="32">
+        <v>721188142255</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19">
+        <f>SUM(G3:G10)</f>
+        <v>1265118.3999999999</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="24">
+        <v>4045270</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1227995</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="35">
+        <v>761189045364</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="21">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60534</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30">
-        <f>SUM(G3:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="G25" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19">
+        <f>SUM(G3:G10)</f>
+        <v>1288529</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>UMA/M/21-22/195</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1246,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,14 +1368,30 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G5" s="1">
+        <v>28025</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="25"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1453,7 +1472,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="19">
         <f>SUM(G3:G10)</f>
-        <v>1288529</v>
+        <v>1316554</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="20"/>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>WB-23-E-4841</t>
+  </si>
+  <si>
+    <t>250g Liner</t>
+  </si>
+  <si>
+    <t>31.05.2021</t>
+  </si>
+  <si>
+    <t>16.05.2021</t>
+  </si>
+  <si>
+    <t>Royal Touch Fablion</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1261,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="24">
-        <v>4045270</v>
+        <v>4045.27</v>
       </c>
       <c r="G3" s="24">
         <v>1227995</v>
@@ -1397,14 +1412,28 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>177000</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="25"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1472,7 +1501,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="19">
         <f>SUM(G3:G10)</f>
-        <v>1316554</v>
+        <v>1493554</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="20"/>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9876A18-1459-40D7-B6EC-0AE7367A9A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
     <sheet name="May 2021" sheetId="32" r:id="rId2"/>
+    <sheet name="June 2021" sheetId="33" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -48,9 +64,6 @@
     <t>NO.OF INVOICE</t>
   </si>
   <si>
-    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OF APRIL 2021-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL FOR THE MONTH OFAPRIL 2021-22 </t>
   </si>
   <si>
@@ -151,13 +164,40 @@
   </si>
   <si>
     <t>Royal Touch Fablion</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OF APRIL 2021</t>
+  </si>
+  <si>
+    <t>03.06.2021</t>
+  </si>
+  <si>
+    <t>Special 500g</t>
+  </si>
+  <si>
+    <t>Special 1Kg</t>
+  </si>
+  <si>
+    <t>special 250g</t>
+  </si>
+  <si>
+    <t>DL-1L-AD-6945</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>04.06.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,21 +290,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -514,6 +539,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -525,136 +563,136 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,6 +701,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -709,7 +755,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +787,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,6 +839,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -950,173 +1032,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2700</v>
+      </c>
+      <c r="G3" s="22">
+        <v>60534</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="24">
+        <v>741189998356</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2036</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22">
+        <v>32400</v>
+      </c>
+      <c r="G4" s="22">
+        <v>389966.4</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="24">
+        <v>701186878145</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="29">
+        <v>7</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1800</v>
+      </c>
+      <c r="G5" s="22">
+        <v>40356</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="24">
-        <v>2700</v>
-      </c>
-      <c r="G3" s="24">
-        <v>60534</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="I5" s="32">
+        <v>741187707460</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="20">
+        <v>6</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="26">
-        <v>741189998356</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="23">
-        <v>2036</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="24">
-        <v>32400</v>
-      </c>
-      <c r="G4" s="24">
-        <v>389966.4</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="26">
-        <v>701186878145</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="31">
-        <v>7</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="24">
-        <v>40356</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="34">
-        <v>741187707460</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="21">
-        <v>6</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>2700</v>
@@ -1124,41 +1206,41 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="33">
+      <c r="H6" s="39"/>
+      <c r="I6" s="31">
         <v>731187707298</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>1086.95</v>
@@ -1166,24 +1248,24 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="31">
+        <v>741188142321</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="33">
-        <v>741188142321</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>65700</v>
@@ -1191,14 +1273,14 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="32">
+      <c r="H9" s="39"/>
+      <c r="I9" s="30">
         <v>721188142255</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1207,37 +1289,37 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19">
+      <c r="I10" s="13"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>SUM(G3:G10)</f>
         <v>1265118.3999999999</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="G15" s="13"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1257,117 +1339,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A2" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="22">
+        <v>4045.27</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1227995</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="I3" s="33">
+        <v>761189045364</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="20">
+        <v>13</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" s="24">
-        <v>4045.27</v>
-      </c>
-      <c r="G3" s="24">
-        <v>1227995</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="35">
-        <v>761189045364</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21">
-        <v>13</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="1">
         <v>2700</v>
@@ -1375,28 +1457,28 @@
       <c r="G4" s="1">
         <v>60534</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="H4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="20">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>36</v>
+      <c r="D5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>1250</v>
@@ -1404,26 +1486,26 @@
       <c r="G5" s="1">
         <v>28025</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="H5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>40</v>
+      <c r="E6" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <v>100000</v>
@@ -1431,92 +1513,40 @@
       <c r="G6" s="1">
         <v>177000</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19">
-        <f>SUM(G3:G10)</f>
+      <c r="H6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
+        <f>SUM(G3:G6)</f>
         <v>1493554</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="G15" s="13"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1525,4 +1555,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19889F10-AB0F-4716-B344-56586E139E32}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="45">
+        <v>20</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="35">
+        <v>560</v>
+      </c>
+      <c r="G3" s="45">
+        <v>277504</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="20">
+        <v>506</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="20">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="20">
+        <v>21</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2900</v>
+      </c>
+      <c r="G6" s="20">
+        <v>75008</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="20">
+        <v>23</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="20">
+        <v>2350</v>
+      </c>
+      <c r="G7" s="20">
+        <v>52687</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <f>SUM(G3:G9)</f>
+        <v>405199</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9876A18-1459-40D7-B6EC-0AE7367A9A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
@@ -19,10 +13,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -191,13 +185,28 @@
   </si>
   <si>
     <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>16.06.2021</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21.22/446</t>
+  </si>
+  <si>
+    <t>UMA/M/21.22/445</t>
+  </si>
+  <si>
+    <t>Rs. 10 Patatka Premimu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -657,6 +666,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,27 +799,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,24 +833,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1032,14 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1053,20 +1029,20 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1073,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1104,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
@@ -1159,17 +1135,17 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1181,7 +1157,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="45" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1190,13 +1166,13 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1206,14 +1182,14 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="20"/>
@@ -1226,17 +1202,17 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1248,7 +1224,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1257,13 +1233,13 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1273,14 +1249,14 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1293,7 +1269,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -1311,14 +1287,14 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="G15" s="12"/>
     </row>
   </sheetData>
@@ -1339,14 +1315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1360,20 +1336,20 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1380,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1411,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1440,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1469,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1496,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -1538,14 +1514,14 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="G11" s="12"/>
     </row>
   </sheetData>
@@ -1558,14 +1534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19889F10-AB0F-4716-B344-56586E139E32}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1579,20 +1555,20 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1623,17 +1599,17 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="46">
         <v>20</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -1642,52 +1618,52 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="46">
         <v>277504</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="23"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="44"/>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1696,8 +1672,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="39" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -1706,88 +1682,211 @@
       <c r="G6" s="20">
         <v>75008</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="40"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="36"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="23"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1113650</v>
+      </c>
+      <c r="G9" s="20">
+        <v>318332</v>
+      </c>
+      <c r="H9" s="36"/>
       <c r="I9" s="23"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
-        <f>SUM(G3:G9)</f>
-        <v>405199</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18">
+        <f>SUM(G3:G17)</f>
+        <v>723531</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="G22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="E6:E7"/>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -200,6 +200,39 @@
   </si>
   <si>
     <t>Rs. 10 Patatka Premimu</t>
+  </si>
+  <si>
+    <t>Premium 250g</t>
+  </si>
+  <si>
+    <t>RJ-14-GJ-3526</t>
+  </si>
+  <si>
+    <t>18.06.2021</t>
+  </si>
+  <si>
+    <t>14.06.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21.22/483</t>
+  </si>
+  <si>
+    <t>1Kg Special Laminate</t>
+  </si>
+  <si>
+    <t>RJ-14-GG-6053</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>Non Wovwn bags</t>
+  </si>
+  <si>
+    <t>Special 250g</t>
+  </si>
+  <si>
+    <t>Special 1kg</t>
   </si>
 </sst>
 </file>
@@ -567,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -677,6 +710,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +741,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,17 +1078,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1136,16 +1184,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1157,7 +1205,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1167,12 +1215,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1230,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -1203,16 +1251,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1224,7 +1272,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="40" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1234,12 +1282,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1297,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -1337,17 +1385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1535,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,17 +1604,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1600,16 +1648,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="47">
         <v>20</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -1618,10 +1666,10 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="47">
         <v>277504</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="33"/>
@@ -1629,41 +1677,41 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="23"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="45"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1672,8 +1720,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -1682,28 +1730,28 @@
       <c r="G6" s="20">
         <v>75008</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1722,16 +1770,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -1743,152 +1791,316 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="23">
+        <v>711193010548</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="23"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1027710</v>
+      </c>
+      <c r="G10" s="20">
+        <v>298622</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="23">
+        <v>771193010096</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="20">
+        <v>64925</v>
+      </c>
+      <c r="G11" s="20">
+        <v>310587</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="23">
+        <v>701193618745</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="20">
+        <v>31</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="20">
+        <v>67260</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23">
+        <v>701195551844</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="40">
+        <v>32</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="20">
+        <v>325</v>
+      </c>
+      <c r="G13" s="40">
+        <v>62921</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="48">
+        <v>751195552628</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="20">
+        <v>200</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="20">
+        <v>200</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="20">
+        <v>200</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18">
-        <f>SUM(G3:G17)</f>
-        <v>723531</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="G22" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18">
+        <f>SUM(G3:G24)</f>
+        <v>1462921</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
+  <mergeCells count="20">
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G13:G16"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="A1:I1"/>
@@ -1896,6 +2108,11 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
     <sheet name="May 2021" sheetId="32" r:id="rId2"/>
     <sheet name="June 2021" sheetId="33" r:id="rId3"/>
+    <sheet name="JULY 2021" sheetId="35" r:id="rId4"/>
+    <sheet name="August 2021" sheetId="36" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'August 2021'!$A$2:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'JULY 2021'!$A$2:$K$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$6</definedName>
   </definedNames>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -233,6 +237,267 @@
   </si>
   <si>
     <t>Special 1kg</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/369</t>
+  </si>
+  <si>
+    <t>Eastern Industrial Syndicate</t>
+  </si>
+  <si>
+    <t>500 g Foil Disk</t>
+  </si>
+  <si>
+    <t>25000 pcs</t>
+  </si>
+  <si>
+    <t>CART/21-22/002</t>
+  </si>
+  <si>
+    <t>Pataka industries Pvt.ltd.</t>
+  </si>
+  <si>
+    <t>500 g cfc</t>
+  </si>
+  <si>
+    <t>250 g cfc</t>
+  </si>
+  <si>
+    <t>1400 pcs</t>
+  </si>
+  <si>
+    <t>1000 pcs</t>
+  </si>
+  <si>
+    <t>WB-25-G-0844</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>Polycon international LTD.</t>
+  </si>
+  <si>
+    <t>500 g jar</t>
+  </si>
+  <si>
+    <t>30942 pcs</t>
+  </si>
+  <si>
+    <t>HR-55-X-3874</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/003</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>Pataka industries Pvt.Ltd.</t>
+  </si>
+  <si>
+    <t>550 pcs</t>
+  </si>
+  <si>
+    <t>07.07.2021</t>
+  </si>
+  <si>
+    <t>Vidhya Bag House</t>
+  </si>
+  <si>
+    <t>Special 250 g</t>
+  </si>
+  <si>
+    <t>1500 Pcs</t>
+  </si>
+  <si>
+    <t>Dl-01-LAD-6945</t>
+  </si>
+  <si>
+    <t>5KG Non Woven Bags</t>
+  </si>
+  <si>
+    <t>4200 Pcs</t>
+  </si>
+  <si>
+    <t>15.07.2021</t>
+  </si>
+  <si>
+    <t>2600 Pcs</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>BPW/007/2021-22</t>
+  </si>
+  <si>
+    <t>BHAGIRATHI PRINTING WORKS</t>
+  </si>
+  <si>
+    <t>102000 Pcs</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/408</t>
+  </si>
+  <si>
+    <t>500G MUKTA STICKER</t>
+  </si>
+  <si>
+    <t>Eastern Indrustrial Syndicate</t>
+  </si>
+  <si>
+    <t>500foildish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24000Pcs </t>
+  </si>
+  <si>
+    <t>26.07.2021</t>
+  </si>
+  <si>
+    <t>03.08.2021</t>
+  </si>
+  <si>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t>k-2344</t>
+  </si>
+  <si>
+    <t>500 G Mukta Jar</t>
+  </si>
+  <si>
+    <t>31104 Pcs</t>
+  </si>
+  <si>
+    <t>RJ-14-GL-8700</t>
+  </si>
+  <si>
+    <t>11.08.2021</t>
+  </si>
+  <si>
+    <t>Vidhya bag house</t>
+  </si>
+  <si>
+    <t>5Kg Non woven bag</t>
+  </si>
+  <si>
+    <t>DL01LAD6945</t>
+  </si>
+  <si>
+    <t>16.08.2021</t>
+  </si>
+  <si>
+    <t>14.08.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/945</t>
+  </si>
+  <si>
+    <t>UMA POLYMERS LTD.</t>
+  </si>
+  <si>
+    <t>250 G SPECIAL LAMINATE</t>
+  </si>
+  <si>
+    <t>2000 PCS</t>
+  </si>
+  <si>
+    <t>4036.79 KGS</t>
+  </si>
+  <si>
+    <t>HR-39-D-1356</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/006</t>
+  </si>
+  <si>
+    <t>PATAKA INDUSTRIES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>500 G MUKTA JAR CFC</t>
+  </si>
+  <si>
+    <t>700 PCS</t>
+  </si>
+  <si>
+    <t>DL-01-M-9626</t>
+  </si>
+  <si>
+    <t>CART/21-22/007</t>
+  </si>
+  <si>
+    <t>1300 PCS</t>
+  </si>
+  <si>
+    <t>EIS/21-22/619</t>
+  </si>
+  <si>
+    <t>EASTERN INDUSTRIAL SYNDICATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 G FOIL DISK </t>
+  </si>
+  <si>
+    <t>52000 PCS.</t>
+  </si>
+  <si>
+    <t>23.08.2021</t>
+  </si>
+  <si>
+    <t>17.08.2021</t>
+  </si>
+  <si>
+    <t>2300  NOS.</t>
+  </si>
+  <si>
+    <t>CART/21-22/005</t>
+  </si>
+  <si>
+    <t>18.08.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/008</t>
+  </si>
+  <si>
+    <t>664 NOS.</t>
+  </si>
+  <si>
+    <t>RTF/K/211021-22</t>
+  </si>
+  <si>
+    <t>ROYAL TOUCH FABLON PVT.LTD.</t>
+  </si>
+  <si>
+    <t>2 KG LINNER</t>
+  </si>
+  <si>
+    <t>10000 NOS.</t>
+  </si>
+  <si>
+    <t>DL-01-GC-8258</t>
   </si>
 </sst>
 </file>
@@ -302,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -596,11 +861,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,6 +1079,81 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,20 +1181,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,17 +1522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1184,16 +1628,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1205,7 +1649,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1215,12 +1659,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1674,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -1251,16 +1695,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1272,7 +1716,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="65" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1282,12 +1726,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1741,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -1385,17 +1829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1585,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1604,17 +2048,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1648,16 +2092,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="75">
         <v>20</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -1666,10 +2110,10 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="75">
         <v>277504</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="75" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="33"/>
@@ -1677,41 +2121,41 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="23"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="65" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1720,8 +2164,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="65" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -1730,28 +2174,28 @@
       <c r="G6" s="20">
         <v>75008</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1770,16 +2214,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -1791,7 +2235,7 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="65" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="23">
@@ -1801,12 +2245,12 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +2260,7 @@
       <c r="G10" s="20">
         <v>298622</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="23">
         <v>771193010096</v>
       </c>
@@ -1855,16 +2299,16 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="65" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="20">
         <v>31</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -1876,7 +2320,7 @@
       <c r="G12" s="20">
         <v>67260</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="23">
@@ -1886,180 +2330,266 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="40">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="65">
         <v>32</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="20">
         <v>325</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="65">
         <v>62921</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="48">
+      <c r="H13" s="71"/>
+      <c r="I13" s="72">
         <v>751195552628</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="20">
         <v>200</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="49"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="20">
         <v>200</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="49"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="20">
         <v>200</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="50"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="37">
+        <v>14750</v>
+      </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="39">
+        <v>701194561042</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="65">
+        <v>1033796</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="72">
+        <v>741194563040</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="51"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="51"/>
+      <c r="A20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2246</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="37">
+        <v>372417.91</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="39">
+        <v>771195781624</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="51"/>
+      <c r="A21" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="65">
+        <v>33</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="20">
+        <v>908</v>
+      </c>
+      <c r="G21" s="65">
+        <v>231799</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="72">
+        <v>751196136603</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="51"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="20">
+        <v>268</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="51"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1920</v>
+      </c>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="20">
+        <v>304</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -2074,7 +2604,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18">
         <f>SUM(G3:G24)</f>
-        <v>1462921</v>
+        <v>3115683.91</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="19"/>
@@ -2092,7 +2622,7 @@
       <c r="G29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="34">
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="H9:H10"/>
@@ -2101,6 +2631,9 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="A1:I1"/>
@@ -2108,11 +2641,1068 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D3:D7"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25872</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="20">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1">
+        <v>102375</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="48">
+        <v>761197599189</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="20">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="54">
+        <v>94164</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="48">
+        <v>781197599958</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="20">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="54">
+        <v>58292</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="48">
+        <v>771199048088</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="20">
+        <v>25133</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="20">
+        <v>14160</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="20">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1900</v>
+      </c>
+      <c r="G10" s="20">
+        <v>42598</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18">
+        <f>SUM(G3:G24)</f>
+        <v>362594</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="76">
+        <v>374367.74</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="47">
+        <v>721202294979</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="20">
+        <v>41</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="77">
+        <v>44840</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="50">
+        <v>751203981053</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="77">
+        <v>1196812</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="50">
+        <v>701204680563</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="77">
+        <v>32928</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="50">
+        <v>761203473777</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="77">
+        <v>61152</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="50">
+        <v>761203474460</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="77">
+        <v>30680</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="50">
+        <v>891170910842</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="77">
+        <v>108192</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="50">
+        <v>771205380634</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="77">
+        <v>31235</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="50">
+        <v>781205382422</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="77">
+        <v>177000</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="50">
+        <v>881173249315</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="61">
+        <f>SUM(G3:G24)</f>
+        <v>2057206.74</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,15 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
     <sheet name="May 2021" sheetId="32" r:id="rId2"/>
     <sheet name="June 2021" sheetId="33" r:id="rId3"/>
+    <sheet name="JULY 2021" sheetId="35" r:id="rId4"/>
+    <sheet name="August 2021" sheetId="36" r:id="rId5"/>
+    <sheet name="September" sheetId="37" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'August 2021'!$A$2:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'JULY 2021'!$A$2:$K$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$K$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$K$6</definedName>
   </definedNames>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -233,6 +238,267 @@
   </si>
   <si>
     <t>Special 1kg</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/369</t>
+  </si>
+  <si>
+    <t>Eastern Industrial Syndicate</t>
+  </si>
+  <si>
+    <t>500 g Foil Disk</t>
+  </si>
+  <si>
+    <t>25000 pcs</t>
+  </si>
+  <si>
+    <t>CART/21-22/002</t>
+  </si>
+  <si>
+    <t>Pataka industries Pvt.ltd.</t>
+  </si>
+  <si>
+    <t>500 g cfc</t>
+  </si>
+  <si>
+    <t>250 g cfc</t>
+  </si>
+  <si>
+    <t>1400 pcs</t>
+  </si>
+  <si>
+    <t>1000 pcs</t>
+  </si>
+  <si>
+    <t>WB-25-G-0844</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>Polycon international LTD.</t>
+  </si>
+  <si>
+    <t>500 g jar</t>
+  </si>
+  <si>
+    <t>30942 pcs</t>
+  </si>
+  <si>
+    <t>HR-55-X-3874</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/003</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>Pataka industries Pvt.Ltd.</t>
+  </si>
+  <si>
+    <t>550 pcs</t>
+  </si>
+  <si>
+    <t>07.07.2021</t>
+  </si>
+  <si>
+    <t>Vidhya Bag House</t>
+  </si>
+  <si>
+    <t>Special 250 g</t>
+  </si>
+  <si>
+    <t>1500 Pcs</t>
+  </si>
+  <si>
+    <t>Dl-01-LAD-6945</t>
+  </si>
+  <si>
+    <t>5KG Non Woven Bags</t>
+  </si>
+  <si>
+    <t>4200 Pcs</t>
+  </si>
+  <si>
+    <t>15.07.2021</t>
+  </si>
+  <si>
+    <t>2600 Pcs</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>BPW/007/2021-22</t>
+  </si>
+  <si>
+    <t>BHAGIRATHI PRINTING WORKS</t>
+  </si>
+  <si>
+    <t>102000 Pcs</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/408</t>
+  </si>
+  <si>
+    <t>500G MUKTA STICKER</t>
+  </si>
+  <si>
+    <t>Eastern Indrustrial Syndicate</t>
+  </si>
+  <si>
+    <t>500foildish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24000Pcs </t>
+  </si>
+  <si>
+    <t>26.07.2021</t>
+  </si>
+  <si>
+    <t>03.08.2021</t>
+  </si>
+  <si>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t>k-2344</t>
+  </si>
+  <si>
+    <t>500 G Mukta Jar</t>
+  </si>
+  <si>
+    <t>31104 Pcs</t>
+  </si>
+  <si>
+    <t>RJ-14-GL-8700</t>
+  </si>
+  <si>
+    <t>11.08.2021</t>
+  </si>
+  <si>
+    <t>Vidhya bag house</t>
+  </si>
+  <si>
+    <t>5Kg Non woven bag</t>
+  </si>
+  <si>
+    <t>DL01LAD6945</t>
+  </si>
+  <si>
+    <t>16.08.2021</t>
+  </si>
+  <si>
+    <t>14.08.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/945</t>
+  </si>
+  <si>
+    <t>UMA POLYMERS LTD.</t>
+  </si>
+  <si>
+    <t>250 G SPECIAL LAMINATE</t>
+  </si>
+  <si>
+    <t>2000 PCS</t>
+  </si>
+  <si>
+    <t>4036.79 KGS</t>
+  </si>
+  <si>
+    <t>HR-39-D-1356</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/006</t>
+  </si>
+  <si>
+    <t>PATAKA INDUSTRIES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>500 G MUKTA JAR CFC</t>
+  </si>
+  <si>
+    <t>700 PCS</t>
+  </si>
+  <si>
+    <t>DL-01-M-9626</t>
+  </si>
+  <si>
+    <t>CART/21-22/007</t>
+  </si>
+  <si>
+    <t>1300 PCS</t>
+  </si>
+  <si>
+    <t>EIS/21-22/619</t>
+  </si>
+  <si>
+    <t>EASTERN INDUSTRIAL SYNDICATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 G FOIL DISK </t>
+  </si>
+  <si>
+    <t>52000 PCS.</t>
+  </si>
+  <si>
+    <t>23.08.2021</t>
+  </si>
+  <si>
+    <t>17.08.2021</t>
+  </si>
+  <si>
+    <t>2300  NOS.</t>
+  </si>
+  <si>
+    <t>CART/21-22/005</t>
+  </si>
+  <si>
+    <t>18.08.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/008</t>
+  </si>
+  <si>
+    <t>664 NOS.</t>
+  </si>
+  <si>
+    <t>RTF/K/211021-22</t>
+  </si>
+  <si>
+    <t>ROYAL TOUCH FABLON PVT.LTD.</t>
+  </si>
+  <si>
+    <t>2 KG LINNER</t>
+  </si>
+  <si>
+    <t>10000 NOS.</t>
+  </si>
+  <si>
+    <t>DL-01-GC-8258</t>
   </si>
 </sst>
 </file>
@@ -302,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -596,11 +862,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,6 +1080,87 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,9 +1188,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,7 +1197,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,17 +1523,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1184,16 +1629,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="73" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1205,7 +1650,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1215,12 +1660,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1675,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -1251,16 +1696,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1272,7 +1717,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1282,12 +1727,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1742,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -1385,17 +1830,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1585,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1604,17 +2049,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1648,16 +2093,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="77">
         <v>20</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="77" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -1666,10 +2111,10 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="77">
         <v>277504</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="77" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="33"/>
@@ -1677,41 +2122,41 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="23"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1720,8 +2165,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="67" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -1730,28 +2175,28 @@
       <c r="G6" s="20">
         <v>75008</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1770,16 +2215,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="67" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -1791,7 +2236,7 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="67" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="23">
@@ -1801,12 +2246,12 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +2261,7 @@
       <c r="G10" s="20">
         <v>298622</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="23">
         <v>771193010096</v>
       </c>
@@ -1855,16 +2300,16 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="67" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="20">
         <v>31</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -1876,7 +2321,7 @@
       <c r="G12" s="20">
         <v>67260</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="67" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="23">
@@ -1886,180 +2331,266 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="40">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="67">
         <v>32</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="20">
         <v>325</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="67">
         <v>62921</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="48">
+      <c r="H13" s="73"/>
+      <c r="I13" s="74">
         <v>751195552628</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="20">
         <v>200</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="49"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="20">
         <v>200</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="49"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="20">
         <v>200</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="50"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="37">
+        <v>14750</v>
+      </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="39">
+        <v>701194561042</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="67">
+        <v>1033796</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="74">
+        <v>741194563040</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="51"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="51"/>
+      <c r="A20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2246</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="37">
+        <v>372417.91</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="39">
+        <v>771195781624</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="51"/>
+      <c r="A21" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="67">
+        <v>33</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="20">
+        <v>908</v>
+      </c>
+      <c r="G21" s="67">
+        <v>231799</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="74">
+        <v>751196136603</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="51"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="20">
+        <v>268</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="51"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1920</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="20">
+        <v>304</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -2074,7 +2605,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18">
         <f>SUM(G3:G24)</f>
-        <v>1462921</v>
+        <v>3115683.91</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="19"/>
@@ -2092,7 +2623,30 @@
       <c r="G29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="34">
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="H9:H10"/>
@@ -2101,20 +2655,1377 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="G13:G16"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25872</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="20">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1">
+        <v>102375</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="48">
+        <v>761197599189</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="20">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="54">
+        <v>94164</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="48">
+        <v>781197599958</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="20">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="54">
+        <v>58292</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="48">
+        <v>771199048088</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="20">
+        <v>25133</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="20">
+        <v>14160</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="20">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1900</v>
+      </c>
+      <c r="G10" s="20">
+        <v>42598</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18">
+        <f>SUM(G3:G24)</f>
+        <v>362594</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="63">
+        <v>374367.74</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="47">
+        <v>721202294979</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="20">
+        <v>41</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="64">
+        <v>44840</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="50">
+        <v>751203981053</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="64">
+        <v>1196812</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="50">
+        <v>701204680563</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="64">
+        <v>32928</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="50">
+        <v>761203473777</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="64">
+        <v>61152</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="50">
+        <v>761203474460</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="64">
+        <v>30680</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="50">
+        <v>891170910842</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="64">
+        <v>108192</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="50">
+        <v>771205380634</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="64">
+        <v>31235</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="50">
+        <v>781205382422</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="64">
+        <v>177000</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="50">
+        <v>881173249315</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="61">
+        <f>SUM(G3:G24)</f>
+        <v>2057206.74</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="55"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="49"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="49"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="49"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="49"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="49"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="49"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="49"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="49"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="49"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="49"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61">
+        <f>SUM(G2:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="June 2021" sheetId="33" r:id="rId3"/>
     <sheet name="JULY 2021" sheetId="35" r:id="rId4"/>
     <sheet name="August 2021" sheetId="36" r:id="rId5"/>
+    <sheet name="September" sheetId="37" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -1154,6 +1155,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,20 +1191,14 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,17 +1523,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1628,16 +1629,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="73" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1649,7 +1650,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1659,12 +1660,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1675,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -1695,16 +1696,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1716,7 +1717,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1726,12 +1727,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1742,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -1829,17 +1830,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2048,17 +2049,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2092,16 +2093,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="77">
         <v>20</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="77" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -2110,10 +2111,10 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="77">
         <v>277504</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="77" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="33"/>
@@ -2121,41 +2122,41 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="23"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="71"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="71"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2164,8 +2165,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="67" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -2174,28 +2175,28 @@
       <c r="G6" s="20">
         <v>75008</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2214,16 +2215,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="67" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -2235,7 +2236,7 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="67" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="23">
@@ -2245,12 +2246,12 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
@@ -2260,7 +2261,7 @@
       <c r="G10" s="20">
         <v>298622</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="23">
         <v>771193010096</v>
       </c>
@@ -2299,16 +2300,16 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="67" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="20">
         <v>31</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -2320,7 +2321,7 @@
       <c r="G12" s="20">
         <v>67260</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="67" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="23">
@@ -2330,76 +2331,76 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="65">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="67">
         <v>32</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="20">
         <v>325</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="67">
         <v>62921</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72">
+      <c r="H13" s="73"/>
+      <c r="I13" s="74">
         <v>751195552628</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="20">
         <v>200</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="74"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="20">
         <v>200</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="74"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="20">
         <v>200</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="73"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
@@ -2433,16 +2434,16 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="67" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -2451,32 +2452,32 @@
       <c r="F18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="67">
         <v>1033796</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="74">
         <v>741194563040</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="73"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
@@ -2512,16 +2513,16 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="67">
         <v>33</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="38" t="s">
@@ -2530,66 +2531,66 @@
       <c r="F21" s="20">
         <v>908</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="67">
         <v>231799</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="74">
         <v>751196136603</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="38" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="20">
         <v>268</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="74"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="20">
         <v>1920</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="74"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="20">
         <v>304</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="73"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -2623,26 +2624,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A21:A24"/>
@@ -2657,6 +2638,26 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2686,17 +2687,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -3168,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3187,17 +3188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -3249,7 +3250,7 @@
       <c r="F3" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="63">
         <v>374367.74</v>
       </c>
       <c r="H3" s="46" t="s">
@@ -3280,7 +3281,7 @@
       <c r="F4" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="64">
         <v>44840</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -3311,7 +3312,7 @@
       <c r="F5" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="64">
         <v>1196812</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -3342,10 +3343,10 @@
       <c r="F6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="64">
         <v>32928</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="67" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="50">
@@ -3373,10 +3374,10 @@
       <c r="F7" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="64">
         <v>61152</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="50">
         <v>761203474460</v>
       </c>
@@ -3402,10 +3403,10 @@
       <c r="F8" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="64">
         <v>30680</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="50">
         <v>891170910842</v>
       </c>
@@ -3431,10 +3432,10 @@
       <c r="F9" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="64">
         <v>108192</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="67" t="s">
         <v>154</v>
       </c>
       <c r="I9" s="50">
@@ -3462,10 +3463,10 @@
       <c r="F10" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="64">
         <v>31235</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="50">
         <v>781205382422</v>
       </c>
@@ -3491,10 +3492,10 @@
       <c r="F11" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="64">
         <v>177000</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="50">
         <v>881173249315</v>
       </c>
@@ -3508,7 +3509,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="20"/>
       <c r="I12" s="50"/>
       <c r="J12" s="6"/>
@@ -3521,7 +3522,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="54"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="20"/>
       <c r="I13" s="50"/>
       <c r="J13" s="6"/>
@@ -3707,4 +3708,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="55"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="49"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="49"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="49"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="49"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="49"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="49"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="49"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="49"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="49"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="49"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61">
+        <f>SUM(G2:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
@@ -1191,10 +1191,10 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
-      <c r="I14" s="75"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
-      <c r="I15" s="75"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
-      <c r="I22" s="75"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
-      <c r="I23" s="75"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -2624,6 +2624,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A21:A24"/>
@@ -2638,26 +2658,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2668,7 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3714,7 +3714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3744,7 @@
       <c r="H1" s="70"/>
       <c r="I1" s="71"/>
     </row>
-    <row r="2" spans="1:9" ht="63.75" thickBot="1">
+    <row r="2" spans="1:9" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>6</v>
       </c>

--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="JULY 2021" sheetId="35" r:id="rId4"/>
     <sheet name="August 2021" sheetId="36" r:id="rId5"/>
     <sheet name="September" sheetId="37" r:id="rId6"/>
+    <sheet name="October 2021" sheetId="38" r:id="rId7"/>
+    <sheet name="November 2021" sheetId="40" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="268">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -495,17 +497,361 @@
     <t>2 KG LINNER</t>
   </si>
   <si>
-    <t>10000 NOS.</t>
-  </si>
-  <si>
     <t>DL-01-GC-8258</t>
+  </si>
+  <si>
+    <t>20.10.2021</t>
+  </si>
+  <si>
+    <t>NON WOVEN BAGS</t>
+  </si>
+  <si>
+    <t>DL-11-AD-6945</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OCTOBER 2021</t>
+  </si>
+  <si>
+    <t>09.10.2021</t>
+  </si>
+  <si>
+    <t>08.10.2021</t>
+  </si>
+  <si>
+    <t>K-2584</t>
+  </si>
+  <si>
+    <t>POLYCON INTERNATIONAL LTD.</t>
+  </si>
+  <si>
+    <t>EMPTY 500.GM JAR</t>
+  </si>
+  <si>
+    <t>RJ14GH4906</t>
+  </si>
+  <si>
+    <t>18.10.2021</t>
+  </si>
+  <si>
+    <t>26.09.2021</t>
+  </si>
+  <si>
+    <t>RTF/K/2770/21-22</t>
+  </si>
+  <si>
+    <t>ROYAL TOUCH FABLON PVT. LTD.</t>
+  </si>
+  <si>
+    <t>100.GM HM LINER</t>
+  </si>
+  <si>
+    <t>WB23C6423</t>
+  </si>
+  <si>
+    <t>27.09.2021</t>
+  </si>
+  <si>
+    <t>AK01068/21-21</t>
+  </si>
+  <si>
+    <t>A.K. MUKHERJEE &amp; CO.</t>
+  </si>
+  <si>
+    <t>MUKTA 250GM TEA CARTON</t>
+  </si>
+  <si>
+    <t>28.09.2021</t>
+  </si>
+  <si>
+    <t>AK01069/21-21</t>
+  </si>
+  <si>
+    <t>VIDHYA BAG HOUSE</t>
+  </si>
+  <si>
+    <t>DL11AD6945</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH OF SEPTEMBER 2021</t>
+  </si>
+  <si>
+    <t>07.09.2021</t>
+  </si>
+  <si>
+    <t>AT/21-22/H0469</t>
+  </si>
+  <si>
+    <t>04.09.2021</t>
+  </si>
+  <si>
+    <t>AMBITN TRANSMISSION PRODUCTS PVT. LTD.</t>
+  </si>
+  <si>
+    <t>UK08CB2964</t>
+  </si>
+  <si>
+    <t>18.09.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>112/2021-22</t>
+  </si>
+  <si>
+    <t>POLYPRINT PACKAGING PRODUCTS PVT. LTD.</t>
+  </si>
+  <si>
+    <t>MUKTA LINER 250G</t>
+  </si>
+  <si>
+    <t>06.09.2021</t>
+  </si>
+  <si>
+    <t>RTF/C/0402/21-22</t>
+  </si>
+  <si>
+    <t>30.KG ZIPPER BAG</t>
+  </si>
+  <si>
+    <t>WB25E8062</t>
+  </si>
+  <si>
+    <t>BPW/013/2021-22</t>
+  </si>
+  <si>
+    <t>MUKTA JAR LABELS 500G 4 COLOUR PRINTED</t>
+  </si>
+  <si>
+    <t>PAPER STICKER OF JAR ROUND LABELS</t>
+  </si>
+  <si>
+    <t>03.09.2021</t>
+  </si>
+  <si>
+    <t>BPW/012/2021-22</t>
+  </si>
+  <si>
+    <t>DL01LAC8745</t>
+  </si>
+  <si>
+    <t>21.09.2021</t>
+  </si>
+  <si>
+    <t>CANVAS BAG</t>
+  </si>
+  <si>
+    <t>100000 NOS.</t>
+  </si>
+  <si>
+    <t>22.10.2021</t>
+  </si>
+  <si>
+    <t>PEE KAY ENTERPRISES</t>
+  </si>
+  <si>
+    <t>DL01LL0691</t>
+  </si>
+  <si>
+    <t>25.10.2021</t>
+  </si>
+  <si>
+    <t>CANVAS BAG PREMIUM 250.GM</t>
+  </si>
+  <si>
+    <t>CANVAS BAG SPECIAL 250.GM</t>
+  </si>
+  <si>
+    <t>DL01J8864</t>
+  </si>
+  <si>
+    <t>CANVAS BAG SPECIAL 1.KG</t>
+  </si>
+  <si>
+    <t>08.11.2021</t>
+  </si>
+  <si>
+    <t>21.10.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/1015</t>
+  </si>
+  <si>
+    <t>AU. FOIL DISC-90 MM</t>
+  </si>
+  <si>
+    <t>91000 PCS</t>
+  </si>
+  <si>
+    <t>HR-38-S-1236</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>165/2021-22</t>
+  </si>
+  <si>
+    <t>MUKTA LINER 250 GM</t>
+  </si>
+  <si>
+    <t>68500 PCS</t>
+  </si>
+  <si>
+    <t>B[E/021/2021-22</t>
+  </si>
+  <si>
+    <t>01.11.2021</t>
+  </si>
+  <si>
+    <t>BHAGIRATHI PRINTING WORKS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUKTA JAL LABELS </t>
+  </si>
+  <si>
+    <t>PAPER STICKER OF JAR TOP</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS RECEIVAD FOR THE MONTH NOVEMBER 2021</t>
+  </si>
+  <si>
+    <t>D.K STATEMENT -2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>PACKING MATEREILS STATEMENT-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>14.11.2021</t>
+  </si>
+  <si>
+    <t>CANVAS BAGS SPL-500GM</t>
+  </si>
+  <si>
+    <t>13.11.2021</t>
+  </si>
+  <si>
+    <t>NON WOVEN BAGS 5KG</t>
+  </si>
+  <si>
+    <t>15.11.2021</t>
+  </si>
+  <si>
+    <t>CART/21-22/010</t>
+  </si>
+  <si>
+    <t>03.11.2021</t>
+  </si>
+  <si>
+    <t>MUKTA 500GM JAR OF CFS</t>
+  </si>
+  <si>
+    <t>1018 PCS</t>
+  </si>
+  <si>
+    <t>MUKTA 250GM CARTON OF CFC</t>
+  </si>
+  <si>
+    <t>1012 PCS</t>
+  </si>
+  <si>
+    <t>DK-01-LY-8550</t>
+  </si>
+  <si>
+    <t>5.11.2021</t>
+  </si>
+  <si>
+    <t>EIS/21-22/1101</t>
+  </si>
+  <si>
+    <t>MUKTA 500GM JAR OF FOIL DISC</t>
+  </si>
+  <si>
+    <t>59000 PCS</t>
+  </si>
+  <si>
+    <t>16.11.2021</t>
+  </si>
+  <si>
+    <t>23.11.2021</t>
+  </si>
+  <si>
+    <t>22.11.2021</t>
+  </si>
+  <si>
+    <t>K-2713</t>
+  </si>
+  <si>
+    <t>POYCON INTERNATIONAL LTD.</t>
+  </si>
+  <si>
+    <t>EMPTY PET JAR 500 GM WITH CAP</t>
+  </si>
+  <si>
+    <t>31104 PCS</t>
+  </si>
+  <si>
+    <t>RJ-14-GK-9251</t>
+  </si>
+  <si>
+    <t>24.11.2021</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/1618</t>
+  </si>
+  <si>
+    <t>UMA POLYMERS LTD</t>
+  </si>
+  <si>
+    <t>SPL 500GM LAMINATED POUCH</t>
+  </si>
+  <si>
+    <t>51475 PCS</t>
+  </si>
+  <si>
+    <t>DL-01-LV-3085</t>
+  </si>
+  <si>
+    <t>UMA/M/21-22/1617</t>
+  </si>
+  <si>
+    <t>SPL TEA 250GM ROLLS</t>
+  </si>
+  <si>
+    <t>3100.130 KGS</t>
+  </si>
+  <si>
+    <t>26.11.2021</t>
+  </si>
+  <si>
+    <t>11.11.2021</t>
+  </si>
+  <si>
+    <t>RTF/C/0581/21-22</t>
+  </si>
+  <si>
+    <t>ROYAL TOUCH FABLON PVT. LTD</t>
+  </si>
+  <si>
+    <t>SIZE (30.KG ) 15BDH ZIPPER BAG</t>
+  </si>
+  <si>
+    <t>3045 PCS</t>
+  </si>
+  <si>
+    <t>DL-01-MA-0276</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,8 +899,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +927,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -963,11 +1329,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1161,6 +1638,43 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,18 +1705,72 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1502,6 +2070,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1523,17 +2094,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1629,16 +2200,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="88" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1650,7 +2221,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="88" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -1660,12 +2231,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +2246,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -1696,16 +2267,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -1717,7 +2288,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="82" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -1727,12 +2298,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="68"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +2313,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -1809,10 +2380,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1830,17 +2404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -1929,7 +2503,9 @@
       <c r="H4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23">
+        <v>741189998356</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
@@ -1958,7 +2534,9 @@
       <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23">
+        <v>771191134608</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
@@ -2028,10 +2606,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2049,17 +2630,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2093,16 +2674,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="92">
         <v>20</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="92" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -2111,52 +2692,54 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="92">
         <v>277504</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="93">
+        <v>761191961892</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="73"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="82" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2165,39 +2748,43 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="82" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
         <v>2900</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="70">
         <v>75008</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="23">
+        <v>731192179338</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="68"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="23">
+        <v>741192442572</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -2215,16 +2802,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="82" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -2236,7 +2823,7 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="82" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="23">
@@ -2246,12 +2833,12 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
@@ -2261,7 +2848,7 @@
       <c r="G10" s="20">
         <v>298622</v>
       </c>
-      <c r="H10" s="68"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="23">
         <v>771193010096</v>
       </c>
@@ -2278,7 +2865,7 @@
       <c r="C11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -2300,16 +2887,16 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="82" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="20">
         <v>31</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="82" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -2321,7 +2908,7 @@
       <c r="G12" s="20">
         <v>67260</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="23">
@@ -2331,76 +2918,78 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="67">
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="82">
         <v>32</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="20">
         <v>325</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="82">
         <v>62921</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74">
+      <c r="H13" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="89">
         <v>751195552628</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="20">
         <v>200</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="75"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="20">
         <v>200</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="75"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="20">
         <v>200</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="76"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
@@ -2414,7 +3003,7 @@
       <c r="C17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="65" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -2434,16 +3023,16 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="82" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -2452,32 +3041,32 @@
       <c r="F18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="67">
-        <v>1033796</v>
-      </c>
-      <c r="H18" s="67" t="s">
+      <c r="G18" s="82">
+        <v>103376</v>
+      </c>
+      <c r="H18" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="89">
         <v>741194563040</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="76"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
@@ -2491,10 +3080,10 @@
       <c r="C20" s="37">
         <v>2246</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="65" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -2513,16 +3102,16 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="82">
         <v>33</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="82" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="38" t="s">
@@ -2531,66 +3120,66 @@
       <c r="F21" s="20">
         <v>908</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="82">
         <v>231799</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="89">
         <v>751196136603</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="38" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="20">
-        <v>268</v>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="75"/>
+        <v>269</v>
+      </c>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="91"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="20">
         <v>1920</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="75"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="20">
         <v>304</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="76"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -2605,7 +3194,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18">
         <f>SUM(G3:G24)</f>
-        <v>3115683.91</v>
+        <v>2185263.91</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="19"/>
@@ -2623,7 +3212,28 @@
       <c r="G29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="I3:I5"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A21:A24"/>
@@ -2638,26 +3248,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2666,10 +3256,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2687,17 +3280,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -2737,7 +3330,7 @@
       <c r="D3" s="45"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="45"/>
       <c r="I3" s="47"/>
       <c r="J3" s="6"/>
@@ -2762,7 +3355,7 @@
       <c r="F4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="20">
         <v>25872</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2791,7 +3384,7 @@
       <c r="F5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="20">
         <v>102375</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2822,7 +3415,7 @@
       <c r="F6" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="20">
         <v>94164</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2853,7 +3446,7 @@
       <c r="F7" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="20">
         <v>58292</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2942,19 +3535,37 @@
         <v>42598</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="48">
+        <v>781200946900</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="20">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1300</v>
+      </c>
+      <c r="G11" s="20">
+        <v>29146</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="I11" s="48"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3139,7 +3750,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18">
         <f>SUM(G3:G24)</f>
-        <v>362594</v>
+        <v>391740</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="19"/>
@@ -3167,10 +3778,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3188,17 +3802,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -3346,7 +3960,7 @@
       <c r="G6" s="64">
         <v>32928</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="82" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="50">
@@ -3377,7 +3991,7 @@
       <c r="G7" s="64">
         <v>61152</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="50">
         <v>761203474460</v>
       </c>
@@ -3406,7 +4020,7 @@
       <c r="G8" s="64">
         <v>30680</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="50">
         <v>891170910842</v>
       </c>
@@ -3435,8 +4049,8 @@
       <c r="G9" s="64">
         <v>108192</v>
       </c>
-      <c r="H9" s="67" t="s">
-        <v>154</v>
+      <c r="H9" s="82" t="s">
+        <v>153</v>
       </c>
       <c r="I9" s="50">
         <v>771205380634</v>
@@ -3466,7 +4080,7 @@
       <c r="G10" s="64">
         <v>31235</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="50">
         <v>781205382422</v>
       </c>
@@ -3490,12 +4104,12 @@
         <v>152</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="G11" s="64">
         <v>177000</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="50">
         <v>881173249315</v>
       </c>
@@ -3504,9 +4118,9 @@
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="49"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="20"/>
       <c r="F12" s="54"/>
       <c r="G12" s="64"/>
@@ -3712,10 +4326,455 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="63">
+        <v>28660</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="54">
+        <v>45500</v>
+      </c>
+      <c r="G4" s="64">
+        <v>30066</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="54">
+        <v>3050</v>
+      </c>
+      <c r="G5" s="64">
+        <v>129492</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="50">
+        <v>841177296641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="54">
+        <v>57500</v>
+      </c>
+      <c r="G6" s="96">
+        <v>106210</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="98">
+        <v>821177406385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="101"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="54">
+        <v>39000</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="101"/>
+      <c r="B8" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="54">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="96">
+        <v>43210</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="102"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="54">
+        <v>39000</v>
+      </c>
+      <c r="G9" s="97"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="20">
+        <v>50</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="54">
+        <v>9560</v>
+      </c>
+      <c r="G10" s="64">
+        <v>214335</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="95"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="20">
+        <v>49</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="54">
+        <v>3497</v>
+      </c>
+      <c r="G11" s="64">
+        <v>238670</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="50">
+        <v>781211703761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="49"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="49"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="49"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="49"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="49"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61">
+        <f>SUM(G2:G23)</f>
+        <v>790643</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3732,19 +4791,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A1" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
@@ -3774,110 +4833,234 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="55"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="57">
+        <v>30564</v>
+      </c>
+      <c r="G3" s="63">
+        <v>367868.3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="47">
+        <v>721215656476</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="54">
+        <v>45660</v>
+      </c>
+      <c r="G4" s="64">
+        <v>95904</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="50">
+        <v>811180821613</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="49"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="54">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="64">
+        <v>212400</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="50">
+        <v>881180900418</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="49"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="54">
+        <v>45900</v>
+      </c>
+      <c r="G6" s="64">
+        <v>194983</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="50">
+        <v>871181120377</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="49"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="73"/>
+      <c r="A7" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="20">
+        <v>53</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="54">
+        <v>1300</v>
+      </c>
+      <c r="G7" s="64">
+        <v>29146</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="50"/>
+      <c r="A8" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="82">
+        <v>2584</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="54">
+        <v>1085</v>
+      </c>
+      <c r="G8" s="96">
+        <v>131705</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="98">
+        <v>791218546344</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="49"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="50"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="54">
+        <v>830</v>
+      </c>
+      <c r="G9" s="97"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="49"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="50"/>
+      <c r="A10" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="82">
+        <v>2590</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="54">
+        <v>1247</v>
+      </c>
+      <c r="G10" s="96">
+        <v>158238</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="98">
+        <v>791219267374</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="49"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="50"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1087</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="49"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="54"/>
       <c r="G12" s="64"/>
       <c r="H12" s="20"/>
@@ -4015,17 +5198,759 @@
       <c r="F24" s="59"/>
       <c r="G24" s="61">
         <f>SUM(G2:G23)</f>
-        <v>0</v>
+        <v>1190244.3</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="19"/>
     </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="16">
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" thickBot="1">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="63">
+        <v>53690</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="109">
+        <v>7429986348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="87"/>
+      <c r="B4" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45265</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="87"/>
+      <c r="B5" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="54">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="96">
+        <v>207280</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="106"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="81"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="54">
+        <v>124000</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="99"/>
+      <c r="K6" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="72">
+        <v>56</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="54">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="64">
+        <v>22420</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="50"/>
+      <c r="K7" s="75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="72">
+        <v>57</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="54">
+        <v>300</v>
+      </c>
+      <c r="G8" s="64">
+        <v>20475</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="50"/>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="72">
+        <v>58</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="54">
+        <v>2800</v>
+      </c>
+      <c r="G9" s="64">
+        <v>62776</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="50"/>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="72">
+        <v>59</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="54">
+        <v>100</v>
+      </c>
+      <c r="G10" s="64">
+        <v>6825</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="50"/>
+      <c r="K10" s="75"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="72">
+        <v>60</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="54">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="64">
+        <v>67260</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="50"/>
+      <c r="K11" s="75"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="72">
+        <v>61</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1443</v>
+      </c>
+      <c r="G12" s="64">
+        <v>32352</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="50"/>
+      <c r="K12" s="75"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="96">
+        <v>85856.960000000006</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="98">
+        <v>7330114609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="81"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="97"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="106"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="49"/>
+      <c r="B15" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="64">
+        <v>45253</v>
+      </c>
+      <c r="H15" s="83"/>
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="72">
+        <v>62</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="54">
+        <v>8000</v>
+      </c>
+      <c r="G16" s="72">
+        <v>179360</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="50">
+        <v>791223202668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="72">
+        <v>374367.74</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="50">
+        <v>781224416223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="72">
+        <v>1013308</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="50">
+        <v>771224252413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="78">
+        <v>224740</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="50">
+        <v>781224252601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="72">
+        <v>129280</v>
+      </c>
+      <c r="H20" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="50">
+        <v>851188979325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="49"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="49"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="49"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="49"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="61">
+        <f>SUM(G2:G27)</f>
+        <v>2570508.7000000002</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PMT RECEPIT-2021-22.xlsx
+++ b/PMT RECEPIT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="31" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="September" sheetId="37" r:id="rId6"/>
     <sheet name="October 2021" sheetId="38" r:id="rId7"/>
     <sheet name="November 2021" sheetId="40" r:id="rId8"/>
+    <sheet name="December 2021" sheetId="41" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021'!$A$2:$K$10</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="270">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -840,6 +841,12 @@
   </si>
   <si>
     <t>DL-01-MA-0276</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
   </si>
 </sst>
 </file>
@@ -934,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1430,6 +1437,21 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1444,7 +1466,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1675,6 +1697,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,12 +1730,12 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,17 +1778,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2094,17 +2139,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2200,16 +2245,16 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="29">
         <v>7</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="89" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -2221,7 +2266,7 @@
       <c r="G5" s="22">
         <v>40356</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="89" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="32">
@@ -2231,12 +2276,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2291,7 @@
       <c r="G6" s="1">
         <v>184275</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="31">
         <v>731187707298</v>
       </c>
@@ -2267,16 +2312,16 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -2288,7 +2333,7 @@
       <c r="G8" s="1">
         <v>322255</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="83" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31">
@@ -2298,12 +2343,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2358,7 @@
       <c r="G9" s="1">
         <v>267732</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="30">
         <v>721188142255</v>
       </c>
@@ -2404,17 +2449,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2630,17 +2675,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2674,16 +2719,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="93">
         <v>20</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="93" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -2692,54 +2737,54 @@
       <c r="F3" s="35">
         <v>560</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="93">
         <v>277504</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="94">
         <v>761191961892</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20">
         <v>506</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="91"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="88"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20">
         <v>3000</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="90"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2748,8 +2793,8 @@
       <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="82" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="20">
@@ -2758,7 +2803,7 @@
       <c r="G6" s="70">
         <v>75008</v>
       </c>
-      <c r="H6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="23">
         <v>731192179338</v>
       </c>
@@ -2766,22 +2811,22 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="83"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>23</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="20">
         <v>2350</v>
       </c>
       <c r="G7" s="20">
         <v>52687</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="23">
         <v>741192442572</v>
       </c>
@@ -2802,16 +2847,16 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -2823,7 +2868,7 @@
       <c r="G9" s="20">
         <v>318332</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="83" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="23">
@@ -2833,12 +2878,12 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
@@ -2848,7 +2893,7 @@
       <c r="G10" s="20">
         <v>298622</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="23">
         <v>771193010096</v>
       </c>
@@ -2887,16 +2932,16 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="20">
         <v>31</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="83" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -2918,78 +2963,78 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="82">
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="83">
         <v>32</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="20">
         <v>325</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="83">
         <v>62921</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="90">
         <v>751195552628</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="20">
         <v>200</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="91"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="20">
         <v>200</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="91"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="20">
         <v>200</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="90"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
@@ -3023,16 +3068,16 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="83" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -3041,32 +3086,32 @@
       <c r="F18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="83">
         <v>103376</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="90">
         <v>741194563040</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="90"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
@@ -3102,16 +3147,16 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="83">
         <v>33</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="83" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="38" t="s">
@@ -3120,66 +3165,66 @@
       <c r="F21" s="20">
         <v>908</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="83">
         <v>231799</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="89">
+      <c r="I21" s="90">
         <v>751196136603</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="38" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="20">
         <v>269</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="91"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="20">
         <v>1920</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="91"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="20">
         <v>304</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="90"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="92"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -3213,27 +3258,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="I3:I5"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A21:A24"/>
@@ -3248,6 +3272,27 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H13:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3280,17 +3325,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -3802,17 +3847,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -3960,7 +4005,7 @@
       <c r="G6" s="64">
         <v>32928</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="50">
@@ -3991,7 +4036,7 @@
       <c r="G7" s="64">
         <v>61152</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="50">
         <v>761203474460</v>
       </c>
@@ -4020,7 +4065,7 @@
       <c r="G8" s="64">
         <v>30680</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="50">
         <v>891170910842</v>
       </c>
@@ -4049,7 +4094,7 @@
       <c r="G9" s="64">
         <v>108192</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="83" t="s">
         <v>153</v>
       </c>
       <c r="I9" s="50">
@@ -4080,7 +4125,7 @@
       <c r="G10" s="64">
         <v>31235</v>
       </c>
-      <c r="H10" s="88"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="50">
         <v>781205382422</v>
       </c>
@@ -4109,7 +4154,7 @@
       <c r="G11" s="64">
         <v>177000</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="50">
         <v>881173249315</v>
       </c>
@@ -4348,17 +4393,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -4467,16 +4512,16 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="83" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -4485,40 +4530,40 @@
       <c r="F6" s="54">
         <v>57500</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="97">
         <v>106210</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="99">
         <v>821177406385</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="101"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="20" t="s">
         <v>195</v>
       </c>
       <c r="F7" s="54">
         <v>39000</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="99"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="101"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -4527,38 +4572,38 @@
       <c r="F8" s="54">
         <v>20000</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="97">
         <v>43210</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="102"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="20" t="s">
         <v>195</v>
       </c>
       <c r="F9" s="54">
         <v>39000</v>
       </c>
-      <c r="G9" s="97"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="20"/>
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="81" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="20">
         <v>50</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="83" t="s">
         <v>176</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -4574,12 +4619,12 @@
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="95"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="20">
         <v>49</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="20" t="s">
         <v>200</v>
       </c>
@@ -4791,17 +4836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -4883,7 +4928,7 @@
       <c r="G4" s="64">
         <v>95904</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="83" t="s">
         <v>169</v>
       </c>
       <c r="I4" s="50">
@@ -4912,7 +4957,7 @@
       <c r="G5" s="64">
         <v>212400</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="50">
         <v>881180900418</v>
       </c>
@@ -4939,7 +4984,7 @@
       <c r="G6" s="64">
         <v>194983</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="50">
         <v>871181120377</v>
       </c>
@@ -4972,16 +5017,16 @@
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="83">
         <v>2584</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="69" t="s">
@@ -4990,70 +5035,70 @@
       <c r="F8" s="54">
         <v>1085</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="97">
         <v>131705</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="99">
         <v>791218546344</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="102"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="82" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="83" t="s">
         <v>207</v>
       </c>
       <c r="F9" s="54">
         <v>830</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="99"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="83">
         <v>2590</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="54">
         <v>1247</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="97">
         <v>158238</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="99">
         <v>791219267374</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="81"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="69" t="s">
         <v>209</v>
       </c>
       <c r="F11" s="54">
         <v>1087</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="99"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="49"/>
@@ -5279,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5297,17 +5342,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" thickBot="1">
       <c r="A2" s="40" t="s">
@@ -5339,7 +5384,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5360,7 +5405,7 @@
       <c r="G3" s="63">
         <v>53690</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="93" t="s">
         <v>215</v>
       </c>
       <c r="I3" s="109">
@@ -5368,7 +5413,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="87"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="73" t="s">
         <v>216</v>
       </c>
@@ -5387,18 +5432,18 @@
       <c r="G4" s="64">
         <v>45265</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="106"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="87"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>222</v>
       </c>
       <c r="E5" s="73" t="s">
@@ -5407,26 +5452,26 @@
       <c r="F5" s="54">
         <v>120000</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="97">
         <v>207280</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="106"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="81"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="73" t="s">
         <v>224</v>
       </c>
       <c r="F6" s="54">
         <v>124000</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="99"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="100"/>
       <c r="K6" s="75" t="s">
         <v>226</v>
       </c>
@@ -5441,7 +5486,7 @@
       <c r="C7" s="72">
         <v>56</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="83" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="74" t="s">
@@ -5469,7 +5514,7 @@
       <c r="C8" s="72">
         <v>57</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="74" t="s">
         <v>229</v>
       </c>
@@ -5493,7 +5538,7 @@
       <c r="C9" s="72">
         <v>58</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="74" t="s">
         <v>231</v>
       </c>
@@ -5517,7 +5562,7 @@
       <c r="C10" s="72">
         <v>59</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="74" t="s">
         <v>229</v>
       </c>
@@ -5541,7 +5586,7 @@
       <c r="C11" s="72">
         <v>60</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="74" t="s">
         <v>231</v>
       </c>
@@ -5565,7 +5610,7 @@
       <c r="C12" s="72">
         <v>61</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="74" t="s">
         <v>231</v>
       </c>
@@ -5580,16 +5625,16 @@
       <c r="K12" s="75"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="83" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="76" t="s">
@@ -5598,30 +5643,30 @@
       <c r="F13" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="97">
         <v>85856.960000000006</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="I13" s="98">
+      <c r="I13" s="99">
         <v>7330114609</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="81"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="76" t="s">
         <v>237</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="106"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="49"/>
@@ -5643,8 +5688,8 @@
       <c r="G15" s="64">
         <v>45253</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="99"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="49" t="s">
@@ -5714,7 +5759,7 @@
       <c r="C18" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="83" t="s">
         <v>254</v>
       </c>
       <c r="E18" s="78" t="s">
@@ -5726,7 +5771,7 @@
       <c r="G18" s="72">
         <v>1013308</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="83" t="s">
         <v>257</v>
       </c>
       <c r="I18" s="50">
@@ -5743,7 +5788,7 @@
       <c r="C19" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="78" t="s">
         <v>255</v>
       </c>
@@ -5753,7 +5798,7 @@
       <c r="G19" s="78">
         <v>224740</v>
       </c>
-      <c r="H19" s="83"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="50">
         <v>781224252601</v>
       </c>
@@ -5927,6 +5972,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D7:D12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
@@ -5935,16 +5990,457 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" thickBot="1">
+      <c r="A2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="80">
+        <v>62</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="80">
+        <v>44840</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="49"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="49"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="49"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="50"/>
+      <c r="K6" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="49"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="50"/>
+      <c r="K7" s="75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="49"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="50"/>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="49"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="50"/>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="49"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="50"/>
+      <c r="K10" s="75"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="49"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="50"/>
+      <c r="K11" s="75"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="49"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="50"/>
+      <c r="K12" s="75"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="49"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="49"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="49"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="49"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="49"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="49"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="49"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="49"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="49"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A29" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116">
+        <f>SUM(G2:G28)</f>
+        <v>44840</v>
+      </c>
+      <c r="H29" s="117"/>
+      <c r="I29" s="118"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1"/>
